--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -179,24 +179,30 @@
     <t>jjjj@gmail.com</t>
   </si>
   <si>
+    <t>jihed1234</t>
+  </si>
+  <si>
+    <t>jihed132321</t>
+  </si>
+  <si>
+    <t>testaabb@esprit.tn</t>
+  </si>
+  <si>
+    <t>jihedjihed</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaabbbbb</t>
+  </si>
+  <si>
+    <t>bbbbbbbbbbb</t>
+  </si>
+  <si>
+    <t>aaaaaaa@gmail.com</t>
+  </si>
+  <si>
     <t>jihed123</t>
   </si>
   <si>
-    <t>testaabb@esprit.tn</t>
-  </si>
-  <si>
-    <t>jihedjihed</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaabbbbb</t>
-  </si>
-  <si>
-    <t>bbbbbbbbbbb</t>
-  </si>
-  <si>
-    <t>aaaaaaa@gmail.com</t>
-  </si>
-  <si>
     <t>aaaaa</t>
   </si>
   <si>
@@ -243,6 +249,15 @@
   </si>
   <si>
     <t>HIMLGVHIMLGV</t>
+  </si>
+  <si>
+    <t>newuser@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$10$d3.dgggO1rp5F5GNvUMmJuMyWzttjcnupq/Wt9a0IeR/oKs4tJpS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newuser </t>
   </si>
 </sst>
 </file>
@@ -357,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
@@ -426,6 +441,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
@@ -482,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1120,13 +1138,13 @@
         <v>55</v>
       </c>
       <c r="E25" t="s" s="32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s" s="32">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G25" t="n" s="32">
-        <v>2.3558877E7</v>
+        <v>9698698.0</v>
       </c>
       <c r="H25" t="n" s="32">
         <v>0.0</v>
@@ -1137,19 +1155,19 @@
         <v>64.0</v>
       </c>
       <c r="B26" t="s" s="33">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s" s="33">
         <v>11</v>
       </c>
       <c r="D26" t="s" s="33">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s" s="33">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s" s="33">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G26" t="n" s="33">
         <v>3.3998822E7</v>
@@ -1163,19 +1181,19 @@
         <v>84.0</v>
       </c>
       <c r="B27" t="s" s="34">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s" s="34">
         <v>18</v>
       </c>
       <c r="D27" t="s" s="34">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s" s="34">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s" s="34">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G27" t="n" s="34">
         <v>2.3445566E7</v>
@@ -1189,19 +1207,19 @@
         <v>85.0</v>
       </c>
       <c r="B28" t="s" s="35">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s" s="35">
         <v>18</v>
       </c>
       <c r="D28" t="s" s="35">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s" s="35">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s" s="35">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G28" t="n" s="35">
         <v>2.3232323E7</v>
@@ -1215,19 +1233,19 @@
         <v>86.0</v>
       </c>
       <c r="B29" t="s" s="36">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s" s="36">
         <v>18</v>
       </c>
       <c r="D29" t="s" s="36">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s" s="36">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s" s="36">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G29" t="n" s="36">
         <v>2.1312322E7</v>
@@ -1241,19 +1259,19 @@
         <v>87.0</v>
       </c>
       <c r="B30" t="s" s="37">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s" s="37">
         <v>18</v>
       </c>
       <c r="D30" t="s" s="37">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s" s="37">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s" s="37">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G30" t="n" s="37">
         <v>1.2312322E7</v>
@@ -1267,19 +1285,19 @@
         <v>88.0</v>
       </c>
       <c r="B31" t="s" s="38">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s" s="38">
         <v>18</v>
       </c>
       <c r="D31" t="s" s="38">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s" s="38">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="38">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G31" t="n" s="38">
         <v>1.2313222E7</v>
@@ -1293,24 +1311,50 @@
         <v>89.0</v>
       </c>
       <c r="B32" t="s" s="39">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s" s="39">
         <v>18</v>
       </c>
       <c r="D32" t="s" s="39">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s" s="39">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="39">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G32" t="n" s="39">
         <v>7.6232323E7</v>
       </c>
       <c r="H32" t="n" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="40">
+        <v>90.0</v>
+      </c>
+      <c r="B33" t="s" s="40">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s" s="40">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s" s="40">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s" s="40">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s" s="40">
+        <v>81</v>
+      </c>
+      <c r="G33" t="n" s="40">
+        <v>4.3214212E7</v>
+      </c>
+      <c r="H33" t="n" s="40">
         <v>0.0</v>
       </c>
     </row>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -182,7 +182,7 @@
     <t>jihed1234</t>
   </si>
   <si>
-    <t>jihed132321</t>
+    <t>zzzzzzz</t>
   </si>
   <si>
     <t>testaabb@esprit.tn</t>
@@ -258,6 +258,27 @@
   </si>
   <si>
     <t xml:space="preserve">newuser </t>
+  </si>
+  <si>
+    <t>idriss@gmail.tn</t>
+  </si>
+  <si>
+    <t>$2a$10$gtQxRFRdg/0WHNfXw3EY6uXXuv8rJyfHxhhvUD2DEgSH.KhjFbXPq</t>
+  </si>
+  <si>
+    <t>idriss</t>
+  </si>
+  <si>
+    <t>jemli</t>
+  </si>
+  <si>
+    <t>Total Users</t>
+  </si>
+  <si>
+    <t>Banned Users</t>
+  </si>
+  <si>
+    <t>Not Banned Users</t>
   </si>
 </sst>
 </file>
@@ -314,7 +335,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +360,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
       </patternFill>
     </fill>
   </fills>
@@ -372,8 +403,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
@@ -413,19 +444,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
@@ -443,55 +474,58 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1138,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="E25" t="s" s="32">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s" s="32">
         <v>16</v>
       </c>
-      <c r="F25" t="s" s="32">
-        <v>56</v>
-      </c>
       <c r="G25" t="n" s="32">
-        <v>9698698.0</v>
+        <v>1.32312312E8</v>
       </c>
       <c r="H25" t="n" s="32">
         <v>0.0</v>
@@ -1356,6 +1390,56 @@
       </c>
       <c r="H33" t="n" s="40">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="41">
+        <v>91.0</v>
+      </c>
+      <c r="B34" t="s" s="41">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s" s="41">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s" s="41">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s" s="41">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s" s="41">
+        <v>85</v>
+      </c>
+      <c r="G34" t="n" s="41">
+        <v>8.8888888E7</v>
+      </c>
+      <c r="H34" t="n" s="41">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
